--- a/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,25</t>
+          <t>-1,97; 9,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,34</t>
+          <t>-5,7; 6,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 6,12</t>
+          <t>-3,07; 5,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,64</t>
+          <t>-0,78; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 69,62</t>
+          <t>-11,99; 68,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 44,17</t>
+          <t>-28,47; 45,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 75,61</t>
+          <t>-26,19; 68,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 72,31</t>
+          <t>-5,41; 67,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 14,29</t>
+          <t>3,41; 13,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 16,61</t>
+          <t>4,35; 16,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,33</t>
+          <t>-1,39; 8,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,22</t>
+          <t>3,42; 13,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,42; 156,15</t>
+          <t>22,78; 145,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,43; 132,06</t>
+          <t>21,88; 128,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 111,59</t>
+          <t>-11,98; 114,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,72; 130,5</t>
+          <t>21,28; 129,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 10,43</t>
+          <t>-3,48; 10,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,28</t>
+          <t>1,83; 14,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 17,28</t>
+          <t>1,99; 16,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 21,79</t>
+          <t>2,57; 20,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 63,52</t>
+          <t>-17,42; 63,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 89,07</t>
+          <t>8,37; 86,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 175,33</t>
+          <t>12,4; 159,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 517,0</t>
+          <t>13,21; 540,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 7,52</t>
+          <t>-0,91; 7,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,51</t>
+          <t>5,46; 13,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,82</t>
+          <t>-0,0; 6,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 53,69</t>
+          <t>4,75; 52,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 41,42</t>
+          <t>-4,32; 39,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,57; 89,85</t>
+          <t>28,98; 88,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 57,9</t>
+          <t>-0,01; 56,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,77; 434,55</t>
+          <t>32,57; 403,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 11,5</t>
+          <t>0,52; 11,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 17,49</t>
+          <t>8,02; 17,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,59</t>
+          <t>4,16; 12,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,83</t>
+          <t>-1,52; 8,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 73,72</t>
+          <t>2,21; 73,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,17; 142,69</t>
+          <t>44,29; 140,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,45; 113,66</t>
+          <t>27,88; 113,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 63,95</t>
+          <t>-8,19; 63,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,65</t>
+          <t>10,34; 17,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,24</t>
+          <t>14,81; 23,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,45</t>
+          <t>5,09; 12,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 13,45</t>
+          <t>1,6; 13,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,88; 328,93</t>
+          <t>97,95; 334,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>119,59; 436,97</t>
+          <t>125,59; 439,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,77; 272,68</t>
+          <t>51,97; 294,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 305,17</t>
+          <t>9,4; 316,41</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,28</t>
+          <t>3,57; 7,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,89</t>
+          <t>8,09; 12,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,66</t>
+          <t>3,28; 6,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 25,96</t>
+          <t>5,5; 25,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,03; 45,59</t>
+          <t>19,93; 45,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,08; 81,21</t>
+          <t>48,91; 81,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,07; 61,57</t>
+          <t>26,0; 62,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,53; 221,09</t>
+          <t>42,18; 209,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
